--- a/data/teknologi_udbredelse.xlsx
+++ b/data/teknologi_udbredelse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB04835E-B4CF-4719-A8BF-F940F175488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{EB04835E-B4CF-4719-A8BF-F940F175488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECFA2018-8840-4235-8167-3A9C04C6F25D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{1D71E54D-B4A7-40DE-BF9C-7B1F1828542B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D71E54D-B4A7-40DE-BF9C-7B1F1828542B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>køling</t>
   </si>
@@ -74,18 +74,6 @@
     <t>farestald_fuldspalte</t>
   </si>
   <si>
-    <t>svin_dybstrøelse</t>
-  </si>
-  <si>
-    <t>svin_fastgødning</t>
-  </si>
-  <si>
-    <t>svin_ajle</t>
-  </si>
-  <si>
-    <t>svin_ude</t>
-  </si>
-  <si>
     <t>kvæg_ringkanal</t>
   </si>
   <si>
@@ -101,13 +89,31 @@
     <t>kvæg_andre_hyppig</t>
   </si>
   <si>
-    <t>kvæg_dybstrøelse</t>
-  </si>
-  <si>
-    <t>kvæg_fastgødning</t>
-  </si>
-  <si>
-    <t>kvæg_ajle</t>
+    <t>ugentlig</t>
+  </si>
+  <si>
+    <t>lavdosis</t>
+  </si>
+  <si>
+    <t>oxidation</t>
+  </si>
+  <si>
+    <t>fakkel</t>
+  </si>
+  <si>
+    <t>køling_biogas</t>
+  </si>
+  <si>
+    <t>ugentlig_lavdosis</t>
+  </si>
+  <si>
+    <t>ugentlig_oxidation</t>
+  </si>
+  <si>
+    <t>ugentlig_fakkel</t>
+  </si>
+  <si>
+    <t>ugentlig_biogas</t>
   </si>
 </sst>
 </file>
@@ -459,19 +465,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B355C10-0BF7-4F2E-BBB9-6D36EFE32A10}">
-  <dimension ref="A2:D22"/>
+  <dimension ref="A2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -484,8 +498,35 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -496,10 +537,38 @@
         <v>1.4</v>
       </c>
       <c r="D3">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18.669826755206635</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>D3*B3/100</f>
+        <v>0.93349133776033166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -510,10 +579,38 @@
         <v>1.4</v>
       </c>
       <c r="D4">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18.669826755206635</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M10" si="0">D4*B4/100</f>
+        <v>0.93349133776033166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -524,10 +621,38 @@
         <v>2.5</v>
       </c>
       <c r="D5">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18.669826755206635</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0.63477410967702563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -538,10 +663,38 @@
         <v>2.5</v>
       </c>
       <c r="D6">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18.669826755206635</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.63477410967702563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -552,10 +705,38 @@
         <v>2.5</v>
       </c>
       <c r="D7">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18.669826755206635</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0.63477410967702563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -566,10 +747,39 @@
         <v>2.4</v>
       </c>
       <c r="D8">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18.669826755206635</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>E8*D8/100</f>
+        <v>7.4679307020826533</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1.3815671798852909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -580,10 +790,38 @@
         <v>2.4</v>
       </c>
       <c r="D9">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18.669826755206635</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>1.3815671798852909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -594,10 +832,38 @@
         <v>2.4</v>
       </c>
       <c r="D10">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18.669826755206635</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1.3815671798852909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -605,13 +871,41 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <f>2.8*2.37</f>
+        <v>6.6360000000000001</v>
       </c>
       <c r="D11">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27.993566152232447</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -622,10 +916,37 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27.993566152232447</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -636,10 +957,37 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27.993566152232447</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -650,10 +998,37 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27.993566152232447</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -661,109 +1036,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <f>2.8*2.37</f>
-        <v>6.6360000000000001</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>30</v>
+        <v>27.993566152232447</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/teknologi_udbredelse.xlsx
+++ b/data/teknologi_udbredelse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{EB04835E-B4CF-4719-A8BF-F940F175488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECFA2018-8840-4235-8167-3A9C04C6F25D}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{EB04835E-B4CF-4719-A8BF-F940F175488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8552F5E-99FB-4DAB-969B-D16346DB33FC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D71E54D-B4A7-40DE-BF9C-7B1F1828542B}"/>
+    <workbookView minimized="1" xWindow="2370" yWindow="4020" windowWidth="21600" windowHeight="11295" xr2:uid="{1D71E54D-B4A7-40DE-BF9C-7B1F1828542B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>køling</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>ugentlig_biogas</t>
+  </si>
+  <si>
+    <t>linespil</t>
   </si>
 </sst>
 </file>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B355C10-0BF7-4F2E-BBB9-6D36EFE32A10}">
-  <dimension ref="A2:M15"/>
+  <dimension ref="A2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,14 +481,13 @@
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -525,8 +527,11 @@
       <c r="M2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -567,8 +572,11 @@
         <f>D3*B3/100</f>
         <v>0.93349133776033166</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -609,8 +617,11 @@
         <f t="shared" ref="M4:M10" si="0">D4*B4/100</f>
         <v>0.93349133776033166</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -651,8 +662,11 @@
         <f t="shared" si="0"/>
         <v>0.63477410967702563</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -693,8 +707,11 @@
         <f t="shared" si="0"/>
         <v>0.63477410967702563</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -735,8 +752,11 @@
         <f t="shared" si="0"/>
         <v>0.63477410967702563</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -778,8 +798,11 @@
         <f t="shared" si="0"/>
         <v>1.3815671798852909</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -820,8 +843,11 @@
         <f t="shared" si="0"/>
         <v>1.3815671798852909</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -862,8 +888,11 @@
         <f t="shared" si="0"/>
         <v>1.3815671798852909</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -904,8 +933,11 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -945,8 +977,11 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -986,8 +1021,11 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1027,8 +1065,11 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1066,6 +1107,9 @@
         <v>0</v>
       </c>
       <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>0</v>
       </c>
     </row>

--- a/data/teknologi_udbredelse.xlsx
+++ b/data/teknologi_udbredelse.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{EB04835E-B4CF-4719-A8BF-F940F175488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8552F5E-99FB-4DAB-969B-D16346DB33FC}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{EB04835E-B4CF-4719-A8BF-F940F175488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30F79FB8-5119-4776-8E81-157C90FD6C8B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2370" yWindow="4020" windowWidth="21600" windowHeight="11295" xr2:uid="{1D71E54D-B4A7-40DE-BF9C-7B1F1828542B}"/>
+    <workbookView xWindow="30795" yWindow="135" windowWidth="16605" windowHeight="11295" xr2:uid="{1D71E54D-B4A7-40DE-BF9C-7B1F1828542B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,19 +35,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1AA6C282-925D-4CED-A3FF-6422F8F27D2D}</author>
+  </authors>
+  <commentList>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{1AA6C282-925D-4CED-A3FF-6422F8F27D2D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Vægtet gennemsnit er 2.35% bliver forsuret.  Total kvæggødning (fast og flydende) er en faktor 2.63 af gylle fra ringkanalstalde. Ved antagelse at alt forsuring koncentreres på ringkanalstalde fås 6,18% af ringkanalstalde forsures</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
+    <t>model_gruppe</t>
+  </si>
+  <si>
     <t>køling</t>
   </si>
   <si>
+    <t>forsuring</t>
+  </si>
+  <si>
     <t>biogas</t>
   </si>
   <si>
-    <t>forsuring</t>
-  </si>
-  <si>
-    <t>model_gruppe</t>
+    <t>ugentlig</t>
+  </si>
+  <si>
+    <t>lavdosis</t>
+  </si>
+  <si>
+    <t>oxidation</t>
+  </si>
+  <si>
+    <t>fakkel</t>
+  </si>
+  <si>
+    <t>ugentlig_lavdosis</t>
+  </si>
+  <si>
+    <t>ugentlig_oxidation</t>
+  </si>
+  <si>
+    <t>ugentlig_fakkel</t>
+  </si>
+  <si>
+    <t>ugentlig_biogas</t>
+  </si>
+  <si>
+    <t>køling_biogas</t>
+  </si>
+  <si>
+    <t>linespil</t>
   </si>
   <si>
     <t>toklimastald_smågrise</t>
@@ -87,49 +135,25 @@
   </si>
   <si>
     <t>kvæg_andre_hyppig</t>
-  </si>
-  <si>
-    <t>ugentlig</t>
-  </si>
-  <si>
-    <t>lavdosis</t>
-  </si>
-  <si>
-    <t>oxidation</t>
-  </si>
-  <si>
-    <t>fakkel</t>
-  </si>
-  <si>
-    <t>køling_biogas</t>
-  </si>
-  <si>
-    <t>ugentlig_lavdosis</t>
-  </si>
-  <si>
-    <t>ugentlig_oxidation</t>
-  </si>
-  <si>
-    <t>ugentlig_fakkel</t>
-  </si>
-  <si>
-    <t>ugentlig_biogas</t>
-  </si>
-  <si>
-    <t>linespil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,6 +193,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Frederik Rask Dalby" id="{07EA4DD1-2E38-4C1E-BF6A-6017C8A0319B}" userId="S::au277187@uni.au.dk::12c7c68b-47c4-4858-a883-dbd84be7356f" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,12 +496,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C11" dT="2024-02-07T11:55:21.37" personId="{07EA4DD1-2E38-4C1E-BF6A-6017C8A0319B}" id="{1AA6C282-925D-4CED-A3FF-6422F8F27D2D}">
+    <text>Vægtet gennemsnit er 2.35% bliver forsuret.  Total kvæggødning (fast og flydende) er en faktor 2.63 af gylle fra ringkanalstalde. Ved antagelse at alt forsuring koncentreres på ringkanalstalde fås 6,18% af ringkanalstalde forsures</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B355C10-0BF7-4F2E-BBB9-6D36EFE32A10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B355C10-0BF7-4F2E-BBB9-6D36EFE32A10}">
   <dimension ref="A2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,51 +527,51 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -578,7 +616,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -623,7 +661,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>3.4</v>
@@ -668,7 +706,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>3.4</v>
@@ -713,7 +751,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>3.4</v>
@@ -758,7 +796,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>7.4</v>
@@ -804,7 +842,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>7.4</v>
@@ -849,7 +887,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>7.4</v>
@@ -894,14 +932,14 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <f>2.8*2.37</f>
-        <v>6.6360000000000001</v>
+        <f>2.35*2.63</f>
+        <v>6.1805000000000003</v>
       </c>
       <c r="D11">
         <v>27.993566152232447</v>
@@ -939,7 +977,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -983,7 +1021,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1027,7 +1065,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1071,7 +1109,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1115,5 +1153,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/teknologi_udbredelse.xlsx
+++ b/data/teknologi_udbredelse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{EB04835E-B4CF-4719-A8BF-F940F175488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30F79FB8-5119-4776-8E81-157C90FD6C8B}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{EB04835E-B4CF-4719-A8BF-F940F175488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F854306B-B552-4F28-A256-0BBB41725CAB}"/>
   <bookViews>
-    <workbookView xWindow="30795" yWindow="135" windowWidth="16605" windowHeight="11295" xr2:uid="{1D71E54D-B4A7-40DE-BF9C-7B1F1828542B}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{1D71E54D-B4A7-40DE-BF9C-7B1F1828542B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>tc={1AA6C282-925D-4CED-A3FF-6422F8F27D2D}</author>
   </authors>
   <commentList>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{1AA6C282-925D-4CED-A3FF-6422F8F27D2D}">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{1AA6C282-925D-4CED-A3FF-6422F8F27D2D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>model_gruppe</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>kvæg_andre_hyppig</t>
+  </si>
+  <si>
+    <t>svin_gylle</t>
+  </si>
+  <si>
+    <t>kvæg_gylle</t>
   </si>
 </sst>
 </file>
@@ -150,10 +156,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,8 +182,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,7 +505,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C11" dT="2024-02-07T11:55:21.37" personId="{07EA4DD1-2E38-4C1E-BF6A-6017C8A0319B}" id="{1AA6C282-925D-4CED-A3FF-6422F8F27D2D}">
+  <threadedComment ref="C12" dT="2024-02-07T11:55:21.37" personId="{07EA4DD1-2E38-4C1E-BF6A-6017C8A0319B}" id="{1AA6C282-925D-4CED-A3FF-6422F8F27D2D}">
     <text>Vægtet gennemsnit er 2.35% bliver forsuret.  Total kvæggødning (fast og flydende) er en faktor 2.63 af gylle fra ringkanalstalde. Ved antagelse at alt forsuring koncentreres på ringkanalstalde fås 6,18% af ringkanalstalde forsures</text>
   </threadedComment>
 </ThreadedComments>
@@ -506,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B355C10-0BF7-4F2E-BBB9-6D36EFE32A10}">
-  <dimension ref="A2:N15"/>
+  <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M10" si="0">D4*B4/100</f>
+        <f t="shared" ref="M4:M11" si="0">D4*B4/100</f>
         <v>0.93349133776033166</v>
       </c>
       <c r="N4">
@@ -932,59 +939,61 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>4.9470946481968339</v>
+      </c>
+      <c r="C11">
+        <v>2.2747331608836707</v>
+      </c>
+      <c r="D11">
+        <v>18.669826755206635</v>
+      </c>
+      <c r="E11">
+        <v>7.5659999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>E11*D11/100</f>
+        <v>1.4125590922989339</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0.92361400023444806</v>
+      </c>
+      <c r="N11">
+        <v>7.5659999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <f>2.35*2.63</f>
         <v>6.1805000000000003</v>
       </c>
-      <c r="D11">
-        <v>27.993566152232447</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
         <v>27.993566152232447</v>
       </c>
@@ -1021,7 +1030,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1065,7 +1074,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1109,7 +1118,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1151,8 +1160,101 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>27.993566152232447</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2.0624038945052026</v>
+      </c>
+      <c r="D17">
+        <v>27.993566152232447</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17" si="1">D17*B17/100</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/teknologi_udbredelse.xlsx
+++ b/data/teknologi_udbredelse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{EB04835E-B4CF-4719-A8BF-F940F175488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F854306B-B552-4F28-A256-0BBB41725CAB}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{EB04835E-B4CF-4719-A8BF-F940F175488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6707FC2-8C34-480A-9F7F-1DB19792A694}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{1D71E54D-B4A7-40DE-BF9C-7B1F1828542B}"/>
+    <workbookView xWindow="29745" yWindow="240" windowWidth="17175" windowHeight="11295" xr2:uid="{1D71E54D-B4A7-40DE-BF9C-7B1F1828542B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>tc={1AA6C282-925D-4CED-A3FF-6422F8F27D2D}</author>
   </authors>
   <commentList>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{1AA6C282-925D-4CED-A3FF-6422F8F27D2D}">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{1AA6C282-925D-4CED-A3FF-6422F8F27D2D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>model_gruppe</t>
   </si>
@@ -135,12 +135,6 @@
   </si>
   <si>
     <t>kvæg_andre_hyppig</t>
-  </si>
-  <si>
-    <t>svin_gylle</t>
-  </si>
-  <si>
-    <t>kvæg_gylle</t>
   </si>
 </sst>
 </file>
@@ -505,7 +499,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C12" dT="2024-02-07T11:55:21.37" personId="{07EA4DD1-2E38-4C1E-BF6A-6017C8A0319B}" id="{1AA6C282-925D-4CED-A3FF-6422F8F27D2D}">
+  <threadedComment ref="C11" dT="2024-02-07T11:55:21.37" personId="{07EA4DD1-2E38-4C1E-BF6A-6017C8A0319B}" id="{1AA6C282-925D-4CED-A3FF-6422F8F27D2D}">
     <text>Vægtet gennemsnit er 2.35% bliver forsuret.  Total kvæggødning (fast og flydende) er en faktor 2.63 af gylle fra ringkanalstalde. Ved antagelse at alt forsuring koncentreres på ringkanalstalde fås 6,18% af ringkanalstalde forsures</text>
   </threadedComment>
 </ThreadedComments>
@@ -513,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B355C10-0BF7-4F2E-BBB9-6D36EFE32A10}">
-  <dimension ref="A2:N26"/>
+  <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="M3" sqref="M3:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,8 +521,8 @@
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -587,7 +581,7 @@
         <v>1.4</v>
       </c>
       <c r="D3">
-        <v>18.669826755206635</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,11 +605,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <f>D3*B3/100</f>
-        <v>0.93349133776033166</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -632,7 +625,7 @@
         <v>1.4</v>
       </c>
       <c r="D4">
-        <v>18.669826755206635</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -656,11 +649,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M11" si="0">D4*B4/100</f>
-        <v>0.93349133776033166</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -677,7 +669,7 @@
         <v>2.5</v>
       </c>
       <c r="D5">
-        <v>18.669826755206635</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -701,11 +693,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>0.63477410967702563</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -722,7 +713,7 @@
         <v>2.5</v>
       </c>
       <c r="D6">
-        <v>18.669826755206635</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,11 +737,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0.63477410967702563</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -767,7 +757,7 @@
         <v>2.5</v>
       </c>
       <c r="D7">
-        <v>18.669826755206635</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -791,11 +781,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>0.63477410967702563</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -812,7 +801,7 @@
         <v>2.4</v>
       </c>
       <c r="D8">
-        <v>18.669826755206635</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -836,12 +825,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <f>E8*D8/100</f>
-        <v>7.4679307020826533</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
-        <v>1.3815671798852909</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>40</v>
@@ -858,7 +845,7 @@
         <v>2.4</v>
       </c>
       <c r="D9">
-        <v>18.669826755206635</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -882,11 +869,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
-        <v>1.3815671798852909</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -903,7 +889,7 @@
         <v>2.4</v>
       </c>
       <c r="D10">
-        <v>18.669826755206635</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -927,11 +913,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
-        <v>1.3815671798852909</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -939,19 +924,20 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>4.9470946481968339</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2.2747331608836707</v>
+        <f>2.35*2.63</f>
+        <v>6.1805000000000003</v>
       </c>
       <c r="D11">
-        <v>18.669826755206635</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>7.5659999999999998</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -972,30 +958,27 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <f>E11*D11/100</f>
-        <v>1.4125590922989339</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <f t="shared" si="0"/>
-        <v>0.92361400023444806</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>7.5659999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <f>2.35*2.63</f>
-        <v>6.1805000000000003</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>27.993566152232447</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1019,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1030,7 +1013,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1039,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>27.993566152232447</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1063,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1074,7 +1057,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1083,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>27.993566152232447</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1107,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1118,7 +1101,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1127,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>27.993566152232447</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1151,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1160,97 +1143,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>27.993566152232447</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>2.0624038945052026</v>
-      </c>
-      <c r="D17">
-        <v>27.993566152232447</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ref="M17" si="1">D17*B17/100</f>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E26" s="1"/>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/teknologi_udbredelse.xlsx
+++ b/data/teknologi_udbredelse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="8_{EB04835E-B4CF-4719-A8BF-F940F175488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6707FC2-8C34-480A-9F7F-1DB19792A694}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="8_{EB04835E-B4CF-4719-A8BF-F940F175488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{945FDF10-E579-4AA6-B9A0-9039DDB022D6}"/>
   <bookViews>
-    <workbookView xWindow="29745" yWindow="240" windowWidth="17175" windowHeight="11295" xr2:uid="{1D71E54D-B4A7-40DE-BF9C-7B1F1828542B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D71E54D-B4A7-40DE-BF9C-7B1F1828542B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,9 +203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,7 +243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -349,7 +349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,7 +510,7 @@
   <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M10"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>18</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>18</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
